--- a/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Provincia-trans_dic.xlsx
@@ -635,17 +635,17 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1101995475150933</v>
+        <v>0.113697319816526</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.106867928762237</v>
+        <v>0.1043958035356486</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.116839023205256</v>
+        <v>0.1161151103000312</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
@@ -659,20 +659,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2033674022898348</v>
+        <v>0.1991076529865387</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.1874338941434823</v>
+        <v>0.1856712434179962</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01935169660230099</v>
+        <v>0.01898148501910465</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.178932075555748</v>
+        <v>0.1803617598084013</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.009942278015396475</v>
+        <v>0.01034861091773025</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1026243028199106</v>
+        <v>0.106744643307513</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01874203549893084</v>
+        <v>0.01929709405441178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05698200015469281</v>
+        <v>0.05506455833935109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01317899248037369</v>
+        <v>0.01345234152985234</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08367233194549344</v>
+        <v>0.08668920029960603</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02086059241039426</v>
+        <v>0.02008237744783035</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1645191700605878</v>
+        <v>0.16567280773487</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0695935309267262</v>
+        <v>0.07062377996778893</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1002434063667465</v>
+        <v>0.1015922038964334</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03802909846529391</v>
+        <v>0.03783979899459805</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1233623133150509</v>
+        <v>0.1235464660612935</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05013117279431097</v>
+        <v>0.04719728223098573</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>0.1451323807288789</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.04045734672852083</v>
+        <v>0.04045734672852084</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1541016205907275</v>
+        <v>0.1463231050484528</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02389856447409372</v>
+        <v>0.02302360290043905</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06967333694638983</v>
+        <v>0.07010792419229633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02444517108727203</v>
+        <v>0.02398564922111499</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1213095015463934</v>
+        <v>0.1196011429090908</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02887425491453782</v>
+        <v>0.02681951558064572</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2371011372512375</v>
+        <v>0.2355263777651461</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07158474250860292</v>
+        <v>0.06881067764520693</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1375634336802527</v>
+        <v>0.1389186877741012</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0676909498831313</v>
+        <v>0.06418984514196532</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1726409571281046</v>
+        <v>0.1740531823997949</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05881216110113593</v>
+        <v>0.05824530980492572</v>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         <v>0.09100564992336356</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.03750641275452157</v>
+        <v>0.03750641275452156</v>
       </c>
     </row>
     <row r="14">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09426368631929553</v>
+        <v>0.0936140123057131</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03335721818346328</v>
+        <v>0.03108187861887283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03564156632275491</v>
+        <v>0.03657789188826017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007575561906417202</v>
+        <v>0.007504628976578985</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07054556007071984</v>
+        <v>0.07272155593608563</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02182189232852741</v>
+        <v>0.02270528258757941</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1668052713722841</v>
+        <v>0.1657604601578259</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1113947434374289</v>
+        <v>0.1064636231159134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08442529346105677</v>
+        <v>0.09200326860046464</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03198638290097533</v>
+        <v>0.02992217409646739</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1135958553150463</v>
+        <v>0.1153097706665682</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06122505166979954</v>
+        <v>0.05994595688967808</v>
       </c>
     </row>
     <row r="16">
@@ -948,7 +948,7 @@
         <v>0.07091570898449626</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.01192240231296826</v>
+        <v>0.01192240231296825</v>
       </c>
     </row>
     <row r="17">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05911707916947398</v>
+        <v>0.06301580758680227</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00592341632250991</v>
+        <v>0.005994356912186713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02516064783930604</v>
+        <v>0.02486482063907656</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.002881400316351063</v>
+        <v>0.001987049628583661</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04914145901637602</v>
+        <v>0.05088631419082545</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.005430660832040774</v>
+        <v>0.005413635766368978</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1398956741816574</v>
+        <v>0.1440549455712558</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03914459152020026</v>
+        <v>0.03514404437180657</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08080258323637235</v>
+        <v>0.0807115313938095</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02201264655981048</v>
+        <v>0.02415842810345247</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09950744434378084</v>
+        <v>0.09729308927397831</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02158377642570719</v>
+        <v>0.02240313945805058</v>
       </c>
     </row>
     <row r="19">
@@ -1018,13 +1018,13 @@
         <v>0.06251446941446587</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.03164703788690396</v>
+        <v>0.03164703788690397</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.0331740445555752</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.005377953801437769</v>
+        <v>0.005377953801437766</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.04757089929477174</v>
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03718426282410424</v>
+        <v>0.03618875052696287</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01491609815536001</v>
+        <v>0.01574390487567412</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01617003598243788</v>
+        <v>0.01422039603803718</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03238082822007324</v>
+        <v>0.0314362641764877</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.008832823550904098</v>
+        <v>0.008093016457204874</v>
       </c>
     </row>
     <row r="21">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09701200324459057</v>
+        <v>0.0955092014192461</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0622612169151455</v>
+        <v>0.06173616116866888</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05974431716579238</v>
+        <v>0.05840785031181082</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02355625877954459</v>
+        <v>0.02958620527966705</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06729925081070184</v>
+        <v>0.0685695941649874</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03742240678884172</v>
+        <v>0.03607638366869603</v>
       </c>
     </row>
     <row r="22">
@@ -1112,7 +1112,7 @@
         <v>0.06766245541874542</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.07314853356817626</v>
+        <v>0.07314853356817629</v>
       </c>
     </row>
     <row r="23">
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06532273404335022</v>
+        <v>0.06403449840295421</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07151102013339361</v>
+        <v>0.07158394980166491</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03771913560354347</v>
+        <v>0.03717910257651753</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03495524497501818</v>
+        <v>0.03359481760360013</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05544390768172192</v>
+        <v>0.05444474321500543</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05841755221822658</v>
+        <v>0.05964175772152228</v>
       </c>
     </row>
     <row r="24">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1096868076444861</v>
+        <v>0.1101231507424178</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.129516998914582</v>
+        <v>0.1283418148594599</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07252830520031618</v>
+        <v>0.07078439045888145</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07061120106055536</v>
+        <v>0.06976234665120475</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08305337485172168</v>
+        <v>0.08299104401119442</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09288495962260594</v>
+        <v>0.0923022744211472</v>
       </c>
     </row>
     <row r="25">
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.117164932029404</v>
+        <v>0.1163398862964365</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1295704773528978</v>
+        <v>0.1272807236694301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08313602483652389</v>
+        <v>0.08255925457871732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06451735550607854</v>
+        <v>0.06568972828901012</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1059057704924062</v>
+        <v>0.1040418095507622</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1018344512456212</v>
+        <v>0.1022134680498633</v>
       </c>
     </row>
     <row r="27">
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.166215720351267</v>
+        <v>0.166390514361466</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1893348518287032</v>
+        <v>0.1853310982368381</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1251318221677197</v>
+        <v>0.1269941454371773</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1041219018444628</v>
+        <v>0.103614852250861</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1383909339496427</v>
+        <v>0.1373890372610434</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1363241978979299</v>
+        <v>0.1365897406858056</v>
       </c>
     </row>
     <row r="28">
@@ -1276,7 +1276,7 @@
         <v>0.1008336839739633</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.05626410501267202</v>
+        <v>0.05626410501267201</v>
       </c>
     </row>
     <row r="29">
@@ -1287,22 +1287,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1139221344040904</v>
+        <v>0.1128025675194444</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.06521636856187842</v>
+        <v>0.06365324646364223</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07054665941004624</v>
+        <v>0.07054893871464281</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.03289880444564754</v>
+        <v>0.03291259571586524</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.09399777843838782</v>
+        <v>0.09334744705178009</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05021039361473768</v>
+        <v>0.0499498918271697</v>
       </c>
     </row>
     <row r="30">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1365019393090566</v>
+        <v>0.1359031338868905</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08625461911091466</v>
+        <v>0.08657466552482941</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.08764291647142873</v>
+        <v>0.08787261539516761</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0458258849606225</v>
+        <v>0.0455356586709189</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1085725741294691</v>
+        <v>0.108144241672606</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06329142376869849</v>
+        <v>0.06236735809112513</v>
       </c>
     </row>
     <row r="31">
@@ -1519,17 +1519,17 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32197</v>
+        <v>33219</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>30853</v>
+        <v>30139</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>67869</v>
+        <v>67449</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
@@ -1543,20 +1543,20 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>59419</v>
+        <v>58174</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>54113</v>
+        <v>53604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6116</v>
+        <v>5999</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>103938</v>
+        <v>104768</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6312</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="8">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51576</v>
+        <v>53647</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9945</v>
+        <v>10240</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29730</v>
+        <v>28729</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7184</v>
+        <v>7333</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>85707</v>
+        <v>88797</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22441</v>
+        <v>21604</v>
       </c>
     </row>
     <row r="11">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>82683</v>
+        <v>83263</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36930</v>
+        <v>37476</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52301</v>
+        <v>53004</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20730</v>
+        <v>20627</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>126361</v>
+        <v>126550</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>53929</v>
+        <v>50773</v>
       </c>
     </row>
     <row r="12">
@@ -1731,22 +1731,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>48640</v>
+        <v>46185</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7454</v>
+        <v>7181</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23432</v>
+        <v>23578</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8567</v>
+        <v>8406</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>79087</v>
+        <v>77974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19126</v>
+        <v>17765</v>
       </c>
     </row>
     <row r="15">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>74838</v>
+        <v>74341</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22328</v>
+        <v>21463</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46264</v>
+        <v>46720</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23724</v>
+        <v>22497</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>112553</v>
+        <v>113474</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>38956</v>
+        <v>38581</v>
       </c>
     </row>
     <row r="16">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34790</v>
+        <v>34550</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12447</v>
+        <v>11598</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13646</v>
+        <v>14005</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3197</v>
+        <v>3167</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>53047</v>
+        <v>54683</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17351</v>
+        <v>18053</v>
       </c>
     </row>
     <row r="19">
@@ -1865,22 +1865,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>61562</v>
+        <v>61177</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41566</v>
+        <v>39726</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32325</v>
+        <v>35226</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13497</v>
+        <v>12626</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>85418</v>
+        <v>86707</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>48680</v>
+        <v>47663</v>
       </c>
     </row>
     <row r="20">
@@ -1947,22 +1947,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12424</v>
+        <v>13243</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5477</v>
+        <v>5413</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>652</v>
+        <v>450</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>21024</v>
+        <v>21771</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2346</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="23">
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29400</v>
+        <v>30274</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8051</v>
+        <v>7228</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17589</v>
+        <v>17569</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4983</v>
+        <v>5469</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42573</v>
+        <v>41625</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>9325</v>
+        <v>9679</v>
       </c>
     </row>
     <row r="24">
@@ -2055,22 +2055,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9784</v>
+        <v>9522</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4038</v>
+        <v>4262</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4416</v>
+        <v>3884</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>17364</v>
+        <v>16857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4721</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="27">
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>25526</v>
+        <v>25131</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16855</v>
+        <v>16712</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16317</v>
+        <v>15952</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6213</v>
+        <v>7803</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>36088</v>
+        <v>36770</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>20001</v>
+        <v>19281</v>
       </c>
     </row>
     <row r="28">
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>42034</v>
+        <v>41205</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>51466</v>
+        <v>51518</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>25659</v>
+        <v>25291</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26932</v>
+        <v>25884</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>73393</v>
+        <v>72071</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>87052</v>
+        <v>88876</v>
       </c>
     </row>
     <row r="31">
@@ -2189,22 +2189,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>70581</v>
+        <v>70861</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>93212</v>
+        <v>92366</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>49338</v>
+        <v>48152</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>54405</v>
+        <v>53751</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>109941</v>
+        <v>109858</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>138414</v>
+        <v>137546</v>
       </c>
     </row>
     <row r="32">
@@ -2271,22 +2271,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>91102</v>
+        <v>90461</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>103407</v>
+        <v>101579</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>68210</v>
+        <v>67737</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>53635</v>
+        <v>54610</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>169239</v>
+        <v>166261</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>165929</v>
+        <v>166547</v>
       </c>
     </row>
     <row r="35">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>129242</v>
+        <v>129378</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>151103</v>
+        <v>147908</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>102666</v>
+        <v>104194</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>86560</v>
+        <v>86138</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>221151</v>
+        <v>219550</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>222127</v>
+        <v>222560</v>
       </c>
     </row>
     <row r="36">
@@ -2379,22 +2379,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>384347</v>
+        <v>380569</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>230128</v>
+        <v>224612</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>248405</v>
+        <v>248413</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>122566</v>
+        <v>122618</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>648106</v>
+        <v>643622</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>364238</v>
+        <v>362349</v>
       </c>
     </row>
     <row r="39">
@@ -2405,22 +2405,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>460525</v>
+        <v>458505</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>304365</v>
+        <v>305494</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>308604</v>
+        <v>309412</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>170727</v>
+        <v>169646</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>748598</v>
+        <v>745645</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>459131</v>
+        <v>452428</v>
       </c>
     </row>
     <row r="40">
